--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1888610.182010028</v>
+        <v>1992843.890403474</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9947692.893209254</v>
+        <v>9956605.784460863</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>87.99748334856844</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>37.93649886016543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.98576519627196</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>42.35526345383992</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.4567522410769</v>
+        <v>115.6841325164241</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>96.25441993222148</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,16 +1104,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.827758781218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>239.3447361355281</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>80.99855610779117</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>130.4060921015522</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>60.30476178829999</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.8417748468653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>86.8894339777008</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>224.7837165195618</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8253826161913385</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>39.38542099944502</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4665281367395</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>206.758226496619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404073</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>140.7058473537592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>266.6707094398018</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>139.1886739667897</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>260.4394343112841</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>63.16281301711305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856566</v>
+        <v>4.665762779850106</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983366032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.733841663484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.0656089242803</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.57362600054932</v>
+        <v>136.7848966149554</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533521043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.05806357630352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>141.383131826302</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.487232975976</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.718577705862</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064542</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.453584903148</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1868.723068092258</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1677.037183919085</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1677.037183919085</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1387.934317044728</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>1133.249828838841</v>
+        <v>1268.101138386997</v>
       </c>
       <c r="W4" t="n">
-        <v>843.8326588018809</v>
+        <v>978.6839683500364</v>
       </c>
       <c r="X4" t="n">
-        <v>615.8431079038636</v>
+        <v>750.694417452019</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.0505287603335</v>
+        <v>529.9018383084889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.638712032431</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.638712032431</v>
+        <v>1303.228924202404</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.373013425681</v>
+        <v>944.9632255956535</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.6869975319821</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C7" t="n">
-        <v>873.6869975319821</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>723.5703581196464</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>575.6572645372532</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>428.7673170393429</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>261.0644804140618</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1492.639133212296</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1492.639133212296</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1203.221963175336</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>975.2324122773183</v>
       </c>
       <c r="Y7" t="n">
-        <v>873.6869975319821</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1832.276849100054</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.314332159642</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1105.048633552892</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>719.2603809546476</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>308.2744761650401</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>2367.546699278354</v>
       </c>
       <c r="Y8" t="n">
-        <v>2218.876689164176</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>2060.583378127722</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>1928.860052772619</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>1778.743413360283</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>1778.743413360283</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>1778.743413360283</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>1611.040576735002</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399795</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396716</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102581</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022994</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T10" t="n">
-        <v>1674.694763119056</v>
+        <v>3014.008748936223</v>
       </c>
       <c r="U10" t="n">
-        <v>1385.5918962447</v>
+        <v>2724.905882061866</v>
       </c>
       <c r="V10" t="n">
-        <v>1130.907408038813</v>
+        <v>2470.221393855979</v>
       </c>
       <c r="W10" t="n">
-        <v>1130.907408038813</v>
+        <v>2470.221393855979</v>
       </c>
       <c r="X10" t="n">
-        <v>902.9178571407958</v>
+        <v>2242.231842957962</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.1252779972657</v>
+        <v>2242.231842957962</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,73 +5175,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235169</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.50678425811</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602308</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602308</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565347</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1466.014387565347</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,13 +5308,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>181.5837680759525</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230657</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>94.65038286230657</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2407.179830045467</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2224.324995700372</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2004.723530723313</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1715.648304067511</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1460.963815861624</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6062,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
         <v>1336.913939313768</v>
@@ -6139,10 +6141,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,25 +6171,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y25" t="n">
         <v>1280.315625093766</v>
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6473,7 +6475,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6548,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190824</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3033.629298638937</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>2864.69311571103</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>2714.576476298694</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>2566.663382716301</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2419.773435218391</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4208.161551753571</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3953.477063547684</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3664.059893510724</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3436.070342612707</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>3215.277763469177</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6962,7 +6964,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3314.305816915986</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2939.372134388632</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C37" t="n">
-        <v>2939.372134388632</v>
+        <v>852.3571656803514</v>
       </c>
       <c r="D37" t="n">
-        <v>2939.372134388632</v>
+        <v>702.2405262680156</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159225</v>
+        <v>554.3274326856225</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>407.4374851877121</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>240.2413859025921</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>98.52955474479018</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430179</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532162</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388632</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.5840502527391</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L39" t="n">
-        <v>95.5840502527391</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400702</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121631</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121631</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121631</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121631</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138403</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.50206557031</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8178837532263</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408905</v>
@@ -7561,10 +7563,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999153973</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263342</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>680.4481746984274</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630045</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-4.280525140988489e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.74287850522944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.44045370237043</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>26.98982571067667</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>101.1181252153553</v>
       </c>
     </row>
     <row r="23">
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>45.37941682720898</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>75.37549921168744</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.728115292809946</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>19.85228889678916</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>112.9489693570383</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>80.44045370237411</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25123,13 +25125,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>25.74504007796003</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.27114962945626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>76.60007353871541</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219437</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.25835418138811</v>
+        <v>43.04708356698194</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.77391660563391</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>871243.0178326825</v>
+        <v>880155.9090842886</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.089149691</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.089149691</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496909</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605436</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551185</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312015</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312028</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768692</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768759</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768692</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768692</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951083.6264771076</v>
+        <v>-770890.7275179881</v>
       </c>
       <c r="C6" t="n">
-        <v>377661.1192504851</v>
+        <v>174222.3776383792</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.119250485</v>
+        <v>377661.1192504853</v>
       </c>
       <c r="E6" t="n">
-        <v>128520.483829973</v>
+        <v>128520.4838299726</v>
       </c>
       <c r="F6" t="n">
         <v>453932.9456373284</v>
       </c>
       <c r="G6" t="n">
+        <v>453932.9456373284</v>
+      </c>
+      <c r="H6" t="n">
+        <v>453932.9456373285</v>
+      </c>
+      <c r="I6" t="n">
+        <v>453932.9456373284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>286327.7678273459</v>
+      </c>
+      <c r="K6" t="n">
+        <v>404822.8529312742</v>
+      </c>
+      <c r="L6" t="n">
+        <v>453932.9456373283</v>
+      </c>
+      <c r="M6" t="n">
+        <v>368877.9177018165</v>
+      </c>
+      <c r="N6" t="n">
         <v>453932.9456373286</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>453932.9456373286</v>
-      </c>
-      <c r="I6" t="n">
-        <v>453932.9456373286</v>
-      </c>
-      <c r="J6" t="n">
-        <v>236401.7432400512</v>
-      </c>
-      <c r="K6" t="n">
-        <v>453932.9456373284</v>
-      </c>
-      <c r="L6" t="n">
-        <v>453932.9456373286</v>
-      </c>
-      <c r="M6" t="n">
-        <v>368877.9177018168</v>
-      </c>
-      <c r="N6" t="n">
-        <v>453932.9456373287</v>
-      </c>
-      <c r="O6" t="n">
-        <v>453932.9456373284</v>
       </c>
       <c r="P6" t="n">
         <v>453932.9456373287</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>294.7363583149121</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>289.8157596099695</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.94638747377537</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>209.7823798699881</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4736178311849</v>
+        <v>266.2462375558376</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.5005949820993</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3840794243949</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>171.5769895179253</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>305.2393825482624</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36.84072899707562</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>159.2441874878692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28284,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28740,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.691090525065596e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.287209419513537e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,22 +30513,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30617,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -30663,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -30684,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-9.52534970440019e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30858,7 +30860,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.472996871215195e-12</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -30906,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.287209419513535e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -30915,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>333.9544784328822</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,19 +32785,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33494,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>342.8454457931488</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,13 +33511,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33742,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>536.3866168795486</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,31 +33970,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>268.1779244693582</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>579.5299594447131</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>530.1364971039794</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060492</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>191.3582339884378</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>405.0449047962153</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>130.3364854949993</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37876,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992843.890403474</v>
+        <v>1988789.764644095</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956605.784460863</v>
+        <v>9956605.784460861</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.99748334856844</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>331.5558777527968</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.3332554667403</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>42.35526345383992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>269.6425323314741</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>115.6841325164241</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>121.827758781218</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y8" t="n">
-        <v>80.99855610779117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4060921015522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>179.0530003794244</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>41.0268615655026</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>86.8894339777008</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.38542099944502</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.602876259996</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.2091541404073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>266.6707094398018</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>139.1886739667897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.17501931583824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>86.60069024004687</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>4.665762779850106</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.7848966149554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.59552936621</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>1155.403316987388</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>797.1376183806378</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>797.1376183806378</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>386.1517135910303</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1524.3658339278</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
         <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.2533734782492</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1268.101138386997</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>978.6839683500364</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X4" t="n">
-        <v>750.694417452019</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y4" t="n">
-        <v>529.9018383084889</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.191441142816</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.228924202404</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>944.9632255956535</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142816</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="U7" t="n">
-        <v>1492.639133212296</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="V7" t="n">
-        <v>1492.639133212296</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1203.221963175336</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>975.2324122773183</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883005</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278354</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2060.583378127722</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>1928.860052772619</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>1778.743413360283</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>1778.743413360283</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>1778.743413360283</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>1611.040576735002</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399795</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396716</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102581</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022994</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>3014.008748936223</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>2724.905882061866</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>2470.221393855979</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W10" t="n">
-        <v>2470.221393855979</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>2242.231842957962</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>2242.231842957962</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5235,16 +5235,16 @@
         <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,28 +5293,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537118</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>643.582908441376</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>495.6698148589829</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>348.7798673610725</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>181.5837680759525</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2407.179830045467</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.324995700372</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2004.723530723313</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.648304067511</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1460.963815861624</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1171.546645824663</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811333</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342034</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2716.927329289435</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3314.305816915986</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1021.293348608258</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>852.3571656803514</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>702.2405262680156</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>554.3274326856225</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>407.4374851877121</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>240.2413859025921</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>98.52955474479018</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1202.941813438498</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7326,58 +7326,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1236.833722500855</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>138.9393975111054</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.26785128072126</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40527886852308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.62417772601977</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.98982571067667</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.37549921168744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>19.85228889678916</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>112.9489693570383</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.44045370237411</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>199.9223080965441</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>76.60007353871541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.04708356698194</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605436</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312028</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26450,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179881</v>
+        <v>-770890.7275179878</v>
       </c>
       <c r="C6" t="n">
-        <v>174222.3776383792</v>
+        <v>174222.3776383791</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.1192504853</v>
+        <v>377661.1192504851</v>
       </c>
       <c r="E6" t="n">
-        <v>128520.4838299726</v>
+        <v>128173.104575616</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829711</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829717</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829717</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829718</v>
       </c>
       <c r="J6" t="n">
-        <v>286327.7678273459</v>
+        <v>285980.3885729887</v>
       </c>
       <c r="K6" t="n">
-        <v>404822.8529312742</v>
+        <v>404475.4736769169</v>
       </c>
       <c r="L6" t="n">
-        <v>453932.9456373283</v>
+        <v>453585.5663829716</v>
       </c>
       <c r="M6" t="n">
-        <v>368877.9177018165</v>
+        <v>368530.5384474596</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373286</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373286</v>
+        <v>453585.5663829713</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373287</v>
+        <v>453585.5663829714</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.7363583149121</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>79.99182502015714</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188749</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.7823798699881</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>113.0913093320065</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>266.2462375558376</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>128.3392387065629</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>164.3840794243949</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y8" t="n">
-        <v>305.2393825482624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>36.84072899707562</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>73.08464294440356</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8454457931488</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>536.3866168795486</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>530.1364971039794</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525773</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>205.0040068187898</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0449047962153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1988789.764644095</v>
+        <v>1990550.294946881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.10788372759593</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>331.5558777527968</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3332554667403</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>269.6425323314741</v>
+        <v>228.0656025585473</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>349.5745610625986</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>179.0530003794244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>41.0268615655026</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>107.4021082756248</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712597</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.602876259996</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>162.4016674345625</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>70.04554881124329</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>86.60069024004687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>23.10998325717172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1524.3658339278</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="C2" t="n">
-        <v>1155.403316987388</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="D2" t="n">
-        <v>797.1376183806378</v>
+        <v>1266.661026443899</v>
       </c>
       <c r="E2" t="n">
-        <v>797.1376183806378</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>386.1517135910303</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.83159218888</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.3658339278</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.3658339278</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.7955294637004</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4527,13 +4527,13 @@
         <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354876</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374703</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4439942939401</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1865.244258568413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1865.244258568413</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1865.244258568413</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1865.244258568413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1258.388789815515</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>872.6005372172704</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>461.6146324276628</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.43293154362</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343197</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219839</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395908</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>135.2579373565604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,31 +6217,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,28 +6697,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>117.1600804794585</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>117.1600804794585</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013354</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.26785128072126</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.62417772601977</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038485</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>199.9223080965441</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>186.1428431935229</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26325,19 +26325,19 @@
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830043</v>
@@ -26346,16 +26346,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
@@ -26447,7 +26447,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768941</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179878</v>
+        <v>-770890.7275179874</v>
       </c>
       <c r="C6" t="n">
         <v>174222.3776383791</v>
@@ -26530,40 +26530,40 @@
         <v>377661.1192504851</v>
       </c>
       <c r="E6" t="n">
-        <v>128173.104575616</v>
+        <v>128485.7459045375</v>
       </c>
       <c r="F6" t="n">
-        <v>453585.5663829711</v>
+        <v>453898.2077118924</v>
       </c>
       <c r="G6" t="n">
-        <v>453585.5663829717</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="H6" t="n">
-        <v>453585.5663829717</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="I6" t="n">
-        <v>453585.5663829718</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="J6" t="n">
-        <v>285980.3885729887</v>
+        <v>286293.0299019102</v>
       </c>
       <c r="K6" t="n">
-        <v>404475.4736769169</v>
+        <v>404788.1150058381</v>
       </c>
       <c r="L6" t="n">
-        <v>453585.5663829716</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="M6" t="n">
-        <v>368530.5384474596</v>
+        <v>368843.1797763809</v>
       </c>
       <c r="N6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="O6" t="n">
-        <v>453585.5663829713</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="P6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>363.8224863446658</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.99182502015714</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91356563188749</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.0913093320065</v>
+        <v>154.6682391049333</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>128.3392387065629</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>61.34716459085485</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>73.08464294440356</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.83623123219</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
